--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Test Case</t>
   </si>
@@ -124,7 +124,7 @@
     <t>TC8</t>
   </si>
   <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt; 2021 International Building Code (IBC) &gt;</t>
+    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt; 2021 International Building Code (IBC) &gt; My Notes</t>
   </si>
   <si>
     <t>You currently do not have any annotations or bookmarks for this book.</t>
@@ -142,22 +142,22 @@
     <t>TC10</t>
   </si>
   <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt;2021 International Building Code (IBC) &gt;My notes &gt;Codes Section&gt; Apps &gt;</t>
-  </si>
-  <si>
-    <t>Automation test</t>
+    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt;2021 International Building Code (IBC) &gt; Codes Section&gt; Apps &gt; Notes</t>
+  </si>
+  <si>
+    <t>User create Note</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt;2021 International Building Code (IBC) &gt;My notes &gt;Codes Section&gt; Chapter &gt; Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User create Note </t>
-  </si>
-  <si>
-    <t>#B00000</t>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt;2021 International Building Code (IBC) &gt;My notes &gt;Codes Section&gt; Chapter &gt; Apps &gt; Bookmarks</t>
+  </si>
+  <si>
+    <t>User create Bookmark</t>
   </si>
 </sst>
 </file>
@@ -166,9 +166,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -226,12 +226,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -239,10 +301,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,90 +319,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -370,13 +370,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +502,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,157 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,74 +561,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,12 +593,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,127 +687,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" ht="75" spans="1:6">
+    <row r="11" ht="60" spans="1:6">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1340,21 +1340,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="75" spans="1:7">
+    <row r="12" ht="75" spans="1:6">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -247,13 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -286,21 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -309,6 +287,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -319,6 +312,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -326,22 +348,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,13 +356,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,187 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,17 +635,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -661,6 +650,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,127 +687,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -7,19 +7,111 @@
     <workbookView windowWidth="20400" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="DC" sheetId="1" r:id="rId1"/>
+    <sheet name="Titles" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Invalid Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Steps</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Sub_section</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>I-Codes</t>
+  </si>
+  <si>
+    <t>2021 I-Codes</t>
+  </si>
+  <si>
+    <t>2021 International Building Code (IBC)</t>
+  </si>
+  <si>
+    <t>CHAPTER 2 DEFINITIONS</t>
+  </si>
+  <si>
+    <t>Commentaries</t>
+  </si>
+  <si>
+    <t>2021 Commentaries</t>
+  </si>
+  <si>
+    <t>2021 IBC Code and Commentary Volume 1 (IBC)</t>
+  </si>
+  <si>
+    <t>Chapter 3: Occupancy Classification and Use</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>IAEI</t>
+  </si>
+  <si>
+    <t>2023 Analysis of Changes, 2023 NEC</t>
+  </si>
+  <si>
+    <t>CHAPTER 2 WIRING AND PROTECTION</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>2021 IECC Code and Commentary (IECC)</t>
+  </si>
+  <si>
+    <t>Chapter 1 [CE]: Scope and Administration</t>
+  </si>
+  <si>
+    <t>Standards</t>
+  </si>
+  <si>
+    <t>AFSI Standards</t>
+  </si>
+  <si>
+    <t>1997 ASI-77 Air Structures Design and Standards Manual</t>
+  </si>
+  <si>
+    <t>SECTION B GUIDE SPECIFICATIONS FOR AIR SUPPORTED STRUCTURES</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>2019 California Fire Code Amendments Handbook</t>
+  </si>
+  <si>
+    <t>DIVISION II ADMINISTRATION</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>2015 International Fuel Gas Code (IFGC)</t>
+  </si>
+  <si>
+    <t>CHAPTER 3 GENERAL REGULATIONS</t>
   </si>
   <si>
     <t>Username</t>
@@ -28,19 +120,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Expected text</t>
-  </si>
-  <si>
-    <t>Expected text _1</t>
-  </si>
-  <si>
-    <t>Expected text _2</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Navigte to url  &gt; Enter Email &gt;Enter password &gt; Click on Sign in button</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Subscription</t>
   </si>
   <si>
     <t>complete.user@iccsafe.info</t>
@@ -49,115 +132,22 @@
     <t>Digital@123</t>
   </si>
   <si>
+    <t>Complete User</t>
+  </si>
+  <si>
     <t>Premium Complete</t>
   </si>
   <si>
-    <t>Complete User</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Navigte to url  &gt; LogIn &gt;click on sync</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Navigte to url  &gt; LogIn &gt;click view Entire library</t>
-  </si>
-  <si>
-    <t>View Row Library Display</t>
-  </si>
-  <si>
-    <t>Your Entire Library</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes</t>
-  </si>
-  <si>
-    <t>I-Codes</t>
-  </si>
-  <si>
-    <t>2021 I-Codes</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt; 2021 International Building Code (IBC)</t>
-  </si>
-  <si>
-    <t>2021 International Building Code (IBC)</t>
-  </si>
-  <si>
-    <t>PREMIUM</t>
-  </si>
-  <si>
-    <t>You have an active premium subscription to access this title</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt; 2021 International Building Code (IBC) &gt;  Add to Favorites &gt; </t>
-  </si>
-  <si>
-    <t>Remove from Favorites</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt; 2021 International Building Code (IBC) &gt;  Remove from favorites&gt;</t>
-  </si>
-  <si>
-    <t>Add to Favorites</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt; 2021 International Building Code (IBC) &gt; My Notes</t>
-  </si>
-  <si>
-    <t>You currently do not have any annotations or bookmarks for this book.</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt;2021 International Building Code (IBC)  &gt;Codes Section&gt;</t>
-  </si>
-  <si>
-    <t>CHAPTER 2 DEFINITIONS</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt;2021 International Building Code (IBC) &gt; Codes Section&gt; Apps &gt; Notes</t>
-  </si>
-  <si>
-    <t>User create Note</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>TC11</t>
-  </si>
-  <si>
-    <t>Login&gt; menu &gt; I-codes &gt;2021 I-codes &gt;2021 International Building Code (IBC) &gt;My notes &gt;Codes Section&gt; Chapter &gt; Apps &gt; Bookmarks</t>
-  </si>
-  <si>
-    <t>User create Bookmark</t>
+    <t>invalid.user@iccsafe.</t>
+  </si>
+  <si>
+    <t>register.user4@mailinator.com</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -165,12 +155,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +184,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -202,54 +199,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF0B5940"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +245,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -287,13 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -319,12 +285,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -332,16 +320,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,15 +334,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +344,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,25 +362,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,61 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,55 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,26 +534,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -565,31 +545,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,13 +627,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,165 +679,150 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,200 +1144,252 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="19" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.9047619047619" customWidth="1"/>
-    <col min="2" max="3" width="26.5428571428571" customWidth="1"/>
-    <col min="4" max="4" width="11.8190476190476" customWidth="1"/>
-    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="26.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="83.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="45" spans="1:6">
-      <c r="A2" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="35" customHeight="1" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:6">
-      <c r="A4" t="s">
+    <row r="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="1:6">
-      <c r="A5" t="s">
+    <row r="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="45" spans="1:7">
-      <c r="A6" t="s">
+    <row r="7" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="8" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="80" customHeight="1" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="89" customHeight="1" spans="1:5">
-      <c r="A8" t="s">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="28.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" ht="91" customHeight="1" spans="1:5">
-      <c r="A9" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" ht="79" customHeight="1" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="19.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" ht="60" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" ht="75" spans="1:6">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="Digital@123"/>
-    <hyperlink ref="C2" r:id="rId2" display="complete.user@iccsafe.info"/>
+    <hyperlink ref="A2" r:id="rId1" display="invalid.user@iccsafe." tooltip="mailto:invalid.user@iccsafe."/>
+    <hyperlink ref="B2" r:id="rId2" display="Digital@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="register.user4@mailinator.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="B4" r:id="rId2" display="Digital@123"/>
+    <hyperlink ref="A5" r:id="rId3" display="register.user4@mailinator.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7815"/>
+    <workbookView windowWidth="20400" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Invalid Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Collection" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Section</t>
   </si>
@@ -148,6 +149,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>CHAPTER 1 GENERAL</t>
+  </si>
+  <si>
+    <t>2023 Energy Collection</t>
+  </si>
+  <si>
+    <t>2021 CFR Part 3285 Model Manufactured Home Installation Standards</t>
+  </si>
+  <si>
+    <t>Subpart C— Site Preparation</t>
   </si>
 </sst>
 </file>
@@ -155,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +193,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -191,9 +238,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,31 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +282,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -268,8 +336,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -278,43 +353,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +377,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,55 +397,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,127 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,17 +602,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,11 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,17 +669,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,15 +708,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,147 +726,165 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1146,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="19" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1173,100 +1238,100 @@
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1308,16 +1373,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1351,34 +1416,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1394,4 +1459,69 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="90.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="29.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Invalid Users" sheetId="3" r:id="rId3"/>
     <sheet name="Collection" sheetId="4" r:id="rId4"/>
+    <sheet name="Basic" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Section</t>
   </si>
@@ -164,6 +165,12 @@
   </si>
   <si>
     <t>Subpart C— Site Preparation</t>
+  </si>
+  <si>
+    <t>Wiley</t>
+  </si>
+  <si>
+    <t>2021 Building Codes Illustrated, 7th Edition</t>
   </si>
 </sst>
 </file>
@@ -171,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -238,42 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -282,17 +253,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,35 +346,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -343,40 +367,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,85 +404,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,97 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +613,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,15 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -641,6 +663,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,15 +702,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -688,35 +710,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,134 +733,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +870,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -886,9 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1211,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="19" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1238,100 +1248,100 @@
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1373,16 +1383,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1416,34 +1426,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1466,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1499,10 +1509,10 @@
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1510,14 +1520,58 @@
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7815" activeTab="4"/>
+    <workbookView windowWidth="20400" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="1" r:id="rId1"/>
@@ -179,8 +179,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -245,6 +245,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -254,84 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,21 +339,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -376,14 +384,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,9 +615,74 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,60 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -699,168 +710,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,9 +873,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -888,13 +885,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1426,34 +1420,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1476,8 +1470,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1509,10 +1503,10 @@
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1520,13 +1514,13 @@
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1541,7 +1535,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1570,7 +1564,7 @@
       <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -245,9 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +254,67 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,63 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,52 +344,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,13 +404,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,157 +500,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,11 +615,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,7 +641,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,7 +650,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +671,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -687,26 +700,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,148 +715,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,8 +1215,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="19" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1470,7 +1470,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7815"/>
+    <workbookView windowWidth="20400" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Invalid Users" sheetId="3" r:id="rId3"/>
     <sheet name="Collection" sheetId="4" r:id="rId4"/>
     <sheet name="Basic" sheetId="5" r:id="rId5"/>
+    <sheet name="ASTM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Section</t>
   </si>
@@ -171,6 +172,21 @@
   </si>
   <si>
     <t>2021 Building Codes Illustrated, 7th Edition</t>
+  </si>
+  <si>
+    <t>Categoray</t>
+  </si>
+  <si>
+    <t>ASTM Standards</t>
+  </si>
+  <si>
+    <t>Iron and Steel Materials</t>
+  </si>
+  <si>
+    <t>ASTM A1003/A1003M-15</t>
+  </si>
+  <si>
+    <t>A1003/A1003M-15</t>
   </si>
 </sst>
 </file>
@@ -178,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -259,34 +275,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,92 +368,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,15 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -642,30 +649,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,6 +683,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -715,15 +731,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,139 +749,142 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1215,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="19" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1420,34 +1439,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1471,7 +1490,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1503,10 +1522,10 @@
       <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1514,13 +1533,13 @@
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1536,7 +1555,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1561,11 +1580,69 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="24.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="35.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="18.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="20400" windowHeight="7815" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Titles" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Collection" sheetId="4" r:id="rId4"/>
     <sheet name="Basic" sheetId="5" r:id="rId5"/>
     <sheet name="ASTM" sheetId="6" r:id="rId6"/>
+    <sheet name="Content Search" sheetId="7" r:id="rId7"/>
+    <sheet name="Registration" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="108">
   <si>
     <t>Section</t>
   </si>
@@ -123,7 +125,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
   </si>
   <si>
     <t>Subscription</t>
@@ -135,12 +140,33 @@
     <t>Digital@123</t>
   </si>
   <si>
-    <t>Complete User</t>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
   <si>
     <t>Premium Complete</t>
   </si>
   <si>
+    <t>single.user@mailinator.com</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Premium Single</t>
+  </si>
+  <si>
+    <t>register.user5@mailinator.com</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
     <t>invalid.user@iccsafe.</t>
   </si>
   <si>
@@ -187,6 +213,138 @@
   </si>
   <si>
     <t>A1003/A1003M-15</t>
+  </si>
+  <si>
+    <t>Search By</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Chapter Name</t>
+  </si>
+  <si>
+    <t>Chapters 4</t>
+  </si>
+  <si>
+    <t>Section Name</t>
+  </si>
+  <si>
+    <t>402.1 Applicability</t>
+  </si>
+  <si>
+    <t>Title Name</t>
+  </si>
+  <si>
+    <t>International Building Code</t>
+  </si>
+  <si>
+    <t>Search within Title</t>
+  </si>
+  <si>
+    <t>walls</t>
+  </si>
+  <si>
+    <t>Advance Term Serach</t>
+  </si>
+  <si>
+    <t>All of the words</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Any of the words</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>None of the words</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>​</t>
+  </si>
+  <si>
+    <t>Near Serach In Advance Term Search</t>
+  </si>
+  <si>
+    <t>Near Search</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>mall</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Security Que</t>
+  </si>
+  <si>
+    <t>Security Ans</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Blank Frist Name</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>What is Your Name?</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>automation.test@mailinator.com</t>
+  </si>
+  <si>
+    <t>Blank Security Que</t>
+  </si>
+  <si>
+    <t>Blank Security Ans</t>
+  </si>
+  <si>
+    <t>Balnk Email</t>
+  </si>
+  <si>
+    <t>Blank Password</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>automation.test@</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
   </si>
 </sst>
 </file>
@@ -194,12 +352,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +372,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -261,6 +425,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -270,6 +442,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,8 +472,38 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,14 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -314,9 +524,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,40 +548,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,29 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,91 +584,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,37 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,54 +764,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -626,6 +790,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -654,36 +831,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -707,11 +854,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,20 +879,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,152 +926,173 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -907,11 +1105,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1234,11 +1444,11 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="19" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="19" customHeight="1" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -1247,114 +1457,114 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1367,49 +1577,97 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="15.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Digital@123"/>
+    <hyperlink ref="A3" r:id="rId2" display="single.user@mailinator.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="Digital@123"/>
+    <hyperlink ref="A4" r:id="rId3" display="register.user5@mailinator.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="Digital@123"/>
+    <hyperlink ref="A2" r:id="rId4" display="complete.user@iccsafe.info" tooltip="mailto:complete.user@iccsafe.info"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1431,43 +1689,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>37</v>
+      <c r="A2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>42</v>
+      <c r="A3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>51</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
-        <v>41</v>
+      <c r="A5" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1502,45 +1760,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
+      <c r="D2" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>48</v>
+      <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1555,7 +1813,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1566,25 +1824,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1598,8 +1856,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1612,41 +1870,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:1">
+      <c r="A13" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="20.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="33.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1234567890</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="automation.test@mailinator.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="automation.test@mailinator.com"/>
+    <hyperlink ref="F4" r:id="rId1" display="automation.test@mailinator.com"/>
+    <hyperlink ref="F6" r:id="rId1" display="automation.test@mailinator.com"/>
+    <hyperlink ref="G2" r:id="rId2" display="Digital@123"/>
+    <hyperlink ref="G3" r:id="rId2" display="Digital@123"/>
+    <hyperlink ref="G4" r:id="rId2" display="Digital@123"/>
+    <hyperlink ref="G5" r:id="rId2" display="Digital@123"/>
+    <hyperlink ref="F7" r:id="rId1" display="automation.test@"/>
+    <hyperlink ref="G7" r:id="rId2" display="Digital@123"/>
+    <hyperlink ref="F8" r:id="rId1" display="automation.test@mailinator.com"/>
+    <hyperlink ref="G8" r:id="rId2" display="1234567890"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -810,7 +810,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="A2:B6 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="E13:E14 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E13:E14 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,13 +1705,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B6"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="36.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.29"/>
@@ -1722,7 +1721,6 @@
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1773,13 +1771,11 @@
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -1825,13 +1821,11 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
@@ -1867,13 +1861,11 @@
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
@@ -1897,7 +1889,6 @@
       <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1918,7 +1909,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B6"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E13:E14 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2147,7 +2138,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A2:B6 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="E13:E14 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/TestData/DigitalCodes data.xlsx
+++ b/TestData/DigitalCodes data.xlsx
@@ -810,7 +810,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="E13:E14 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1040,7 +1040,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E13:E14 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,7 +1705,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13:E14"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,7 +1729,7 @@
       <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -1738,7 +1738,7 @@
       <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -1747,7 +1747,7 @@
       <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -1756,7 +1756,7 @@
       <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -1765,7 +1765,7 @@
       <c r="B6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
@@ -1840,7 +1840,6 @@
       <c r="D13" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
@@ -1855,7 +1854,6 @@
       <c r="D14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
@@ -1874,7 +1872,6 @@
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
@@ -1883,7 +1880,6 @@
       <c r="B18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
@@ -1909,7 +1905,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E13:E14 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2138,7 +2134,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="E13:E14 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
